--- a/FPtrialTypes4.xlsx
+++ b/FPtrialTypes4.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Dropbox\python\psychopy\mainseq_paradigm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\python\psychopy\psychopy_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>fp2loc</t>
   </si>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>[0,-15]</t>
-  </si>
-  <si>
-    <t>[25,0]</t>
-  </si>
-  <si>
-    <t>[-25,0]</t>
-  </si>
-  <si>
-    <t>[0,25]</t>
-  </si>
-  <si>
-    <t>[0,-25]</t>
   </si>
   <si>
     <t>arraynum</t>
@@ -110,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,13 +659,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -685,13 +673,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -699,13 +687,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -713,44 +701,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
